--- a/Base/Teams/Steelers/Players Data.xlsx
+++ b/Base/Teams/Steelers/Players Data.xlsx
@@ -524,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>22</v>
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -740,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -870,16 +870,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -896,16 +896,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -928,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -948,13 +948,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1052,10 +1052,10 @@
         <v>25</v>
       </c>
       <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>8</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
       </c>
       <c r="E14">
         <v>2</v>

--- a/Base/Teams/Steelers/Players Data.xlsx
+++ b/Base/Teams/Steelers/Players Data.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -752,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -870,19 +870,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -896,16 +896,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -922,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -948,10 +948,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1038,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/Base/Teams/Steelers/Players Data.xlsx
+++ b/Base/Teams/Steelers/Players Data.xlsx
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>21</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -740,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -870,13 +870,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>14</v>
@@ -896,13 +896,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -922,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -948,19 +948,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1052,10 +1052,10 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>2</v>

--- a/Base/Teams/Steelers/Players Data.xlsx
+++ b/Base/Teams/Steelers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>A.Miller</t>
+  </si>
+  <si>
+    <t>C.White</t>
   </si>
   <si>
     <t>P.Freiermuth</t>
@@ -507,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -524,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -544,13 +547,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -703,7 +706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -752,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -766,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -870,22 +873,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>14</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -896,22 +899,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -922,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>21</v>
@@ -948,19 +951,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>5</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -997,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1012,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1023,25 +1026,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1052,22 +1055,22 @@
         <v>25</v>
       </c>
       <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
         <v>11</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1078,21 +1081,47 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Steelers/Players Data.xlsx
+++ b/Base/Teams/Steelers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
     <t>A.McFarland</t>
   </si>
   <si>
+    <t>D.Watt</t>
+  </si>
+  <si>
     <t>D.Johnson</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>D.Watt</t>
   </si>
   <si>
     <t>A.Miller</t>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -607,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -627,16 +627,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -647,16 +647,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -667,16 +667,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -687,15 +687,35 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
@@ -717,22 +737,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -743,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -844,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -870,25 +890,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>14</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -896,22 +916,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>13</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -922,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -931,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -948,13 +968,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -963,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1026,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -1055,10 +1075,10 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1067,10 +1087,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1081,10 +1101,10 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1093,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>1</v>

--- a/Base/Teams/Steelers/Players Data.xlsx
+++ b/Base/Teams/Steelers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>RZ Comp</t>
+  </si>
+  <si>
+    <t>J.Smith-Schuster</t>
   </si>
   <si>
     <t>A.Miller</t>
@@ -527,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E4">
         <v>26</v>
@@ -547,13 +550,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -567,13 +570,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -647,10 +650,10 @@
         <v>13</v>
       </c>
       <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
         <v>6</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -726,7 +729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +766,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -789,10 +792,10 @@
         <v>8</v>
       </c>
       <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -867,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -893,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D7">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>14</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -916,25 +919,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -942,22 +945,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
         <v>33</v>
       </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>12</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -968,25 +971,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <v>6</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -994,25 +997,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1023,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,13 +1049,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1061,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1072,25 +1075,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1101,22 +1104,22 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1127,21 +1130,47 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>
